--- a/30_KnowHow/SVN/usage of SVN.xlsx
+++ b/30_KnowHow/SVN/usage of SVN.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="创建SVNServer" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <r>
       <t xml:space="preserve">svn checkout https://auvm-cm-elb-1191257598.ap-northeast-1.elb.amazonaws.com/svn/auwm_res/auwm/ -r </t>
@@ -54,12 +55,21 @@
   <si>
     <t>jzhang/</t>
   </si>
+  <si>
+    <t>Server下载</t>
+  </si>
+  <si>
+    <t>&gt;https://www.visualsvn.com/downloads/</t>
+  </si>
+  <si>
+    <t>http://subversion.apache.org/packages.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +83,33 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF232323"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,15 +129,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -114,6 +161,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1036" name="AutoShape 12" descr="http://pic002.cnblogs.com/images/2012/59020/2012032011191323.png"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="552450" y="79705200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" activeCellId="1" sqref="C9 L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,4 +564,207 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D59"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="4.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="6"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/30_KnowHow/SVN/usage of SVN.xlsx
+++ b/30_KnowHow/SVN/usage of SVN.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SVN setting" sheetId="1" r:id="rId1"/>
     <sheet name="创建SVNServer" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
